--- a/FinalResults/LinearSearch.xlsx
+++ b/FinalResults/LinearSearch.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TuDublin\Masters Project\Git Clone\MastersProject2021\Results\LinearSearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TuDublin\Masters Project\Git Clone\MastersProject2021\FinalResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD9E368-898D-4EE9-BE28-6B7FC3389466}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A0BFEE-89E8-4D20-8423-E57962FA64AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>AssemblyScript</t>
   </si>
@@ -38,11 +38,17 @@
   <si>
     <t>Rust</t>
   </si>
+  <si>
+    <t>Iteration</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -74,7 +80,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,452 +361,546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D31"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="18" customWidth="1"/>
+    <col min="2" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>11.942014285000001</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="1">
         <v>1.7904999999999999E-5</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="1">
         <v>2.0254E-5</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="1">
         <v>6.4795100000000002E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>11.9952775</v>
       </c>
-      <c r="B3">
+      <c r="C3" s="1">
         <v>2.7999999999999999E-6</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="1">
         <v>2.1660000000000001E-6</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="1">
         <v>4.5241999999999998E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>12.316951340999999</v>
       </c>
-      <c r="B4">
+      <c r="C4" s="1">
         <v>1.4789999999999999E-6</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="1">
         <v>1.592E-6</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="1">
         <v>2.37142E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
         <v>12.475679147999999</v>
       </c>
-      <c r="B5">
+      <c r="C5" s="1">
         <v>1.3149999999999999E-6</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="1">
         <v>1.2559999999999999E-6</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="1">
         <v>1.9405299999999999E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
         <v>13.215312057</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="1">
         <v>4.0679999999999998E-6</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="1">
         <v>5.9669999999999998E-6</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="1">
         <v>1.99588E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
         <v>12.740004275</v>
       </c>
-      <c r="B7">
+      <c r="C7" s="1">
         <v>4.4909999999999999E-6</v>
       </c>
-      <c r="C7">
+      <c r="D7" s="1">
         <v>4.2039999999999999E-6</v>
       </c>
-      <c r="D7">
+      <c r="E7" s="1">
         <v>2.0401600000000001E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
         <v>12.276377584</v>
       </c>
-      <c r="B8">
+      <c r="C8" s="1">
         <v>1.1260000000000001E-6</v>
       </c>
-      <c r="C8">
+      <c r="D8" s="1">
         <v>1.031E-6</v>
       </c>
-      <c r="D8">
+      <c r="E8" s="1">
         <v>2.4884100000000003E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
         <v>12.981678241999999</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>9.540000000000001E-7</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>9.7600000000000006E-7</v>
       </c>
-      <c r="D9">
+      <c r="E9" s="1">
         <v>2.2445200000000001E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
         <v>14.334742113000001</v>
       </c>
-      <c r="B10">
+      <c r="C10" s="1">
         <v>1.6509999999999999E-6</v>
       </c>
-      <c r="C10">
+      <c r="D10" s="1">
         <v>2.0109999999999999E-6</v>
       </c>
-      <c r="D10">
+      <c r="E10" s="1">
         <v>4.53444E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
         <v>14.369999547000001</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>8.9199999999999999E-7</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>8.1800000000000005E-7</v>
       </c>
-      <c r="D11">
+      <c r="E11" s="1">
         <v>2.4284E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
         <v>12.895986200999999</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C12" s="1">
         <v>7.3E-7</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>7.1699999999999997E-7</v>
       </c>
-      <c r="D12">
+      <c r="E12" s="1">
         <v>2.1252099999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
         <v>12.732635883</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C13" s="1">
         <v>7.0100000000000004E-7</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>6.2200000000000004E-7</v>
       </c>
-      <c r="D13">
+      <c r="E13" s="1">
         <v>4.1914300000000002E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
         <v>13.110937525000001</v>
       </c>
-      <c r="B14" s="1">
+      <c r="C14" s="1">
         <v>6.5700000000000002E-7</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>6.2099999999999996E-7</v>
       </c>
-      <c r="D14">
+      <c r="E14" s="1">
         <v>1.6473200000000001E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
         <v>13.928913294999999</v>
       </c>
-      <c r="B15" s="1">
+      <c r="C15" s="1">
         <v>6.06E-7</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>5.5700000000000002E-7</v>
       </c>
-      <c r="D15">
+      <c r="E15" s="1">
         <v>2.12473E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
         <v>14.656039888</v>
       </c>
-      <c r="B16" s="1">
+      <c r="C16" s="1">
         <v>6.2099999999999996E-7</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>5.8100000000000003E-7</v>
       </c>
-      <c r="D16">
+      <c r="E16" s="1">
         <v>1.58562E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
         <v>14.686674032000001</v>
       </c>
-      <c r="B17" s="1">
+      <c r="C17" s="1">
         <v>5.9599999999999999E-7</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>5.8500000000000001E-7</v>
       </c>
-      <c r="D17">
+      <c r="E17" s="1">
         <v>1.5281999999999999E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
         <v>13.156319718000001</v>
       </c>
-      <c r="B18" s="1">
+      <c r="C18" s="1">
         <v>8.1100000000000005E-7</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>5.2399999999999998E-7</v>
       </c>
-      <c r="D18">
+      <c r="E18" s="1">
         <v>1.50524E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
         <v>12.668409485</v>
       </c>
-      <c r="B19" s="1">
+      <c r="C19" s="1">
         <v>5.8999999999999996E-7</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>5.5499999999999998E-7</v>
       </c>
-      <c r="D19">
+      <c r="E19" s="1">
         <v>1.4942500000000001E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
         <v>13.103171995</v>
       </c>
-      <c r="B20" s="1">
+      <c r="C20" s="1">
         <v>6.2900000000000003E-7</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>5.7299999999999996E-7</v>
       </c>
-      <c r="D20">
+      <c r="E20" s="1">
         <v>3.3131799999999999E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
         <v>14.370516821000001</v>
       </c>
-      <c r="B21" s="1">
+      <c r="C21" s="1">
         <v>6.2600000000000002E-7</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>5.7700000000000004E-7</v>
       </c>
-      <c r="D21">
+      <c r="E21" s="1">
         <v>1.7979000000000001E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
         <v>14.789778181000001</v>
       </c>
-      <c r="B22" s="1">
+      <c r="C22" s="1">
         <v>5.1500000000000005E-7</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>4.9699999999999996E-7</v>
       </c>
-      <c r="D22">
+      <c r="E22" s="1">
         <v>1.5614700000000001E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
         <v>14.187896079</v>
       </c>
-      <c r="B23" s="1">
+      <c r="C23" s="1">
         <v>6.1399999999999997E-7</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>6.9100000000000003E-7</v>
       </c>
-      <c r="D23">
+      <c r="E23" s="1">
         <v>1.9154999999999999E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
         <v>13.046810261999999</v>
       </c>
-      <c r="B24" s="1">
+      <c r="C24" s="1">
         <v>5.7100000000000002E-7</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>6.1999999999999999E-7</v>
       </c>
-      <c r="D24">
+      <c r="E24" s="1">
         <v>3.9942500000000002E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
         <v>12.695608407</v>
       </c>
-      <c r="B25" s="1">
+      <c r="C25" s="1">
         <v>5.1500000000000005E-7</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
         <v>5.3399999999999999E-7</v>
       </c>
-      <c r="D25">
+      <c r="E25" s="1">
         <v>1.5939900000000001E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
         <v>13.018220743000001</v>
-      </c>
-      <c r="B26" s="1">
-        <v>4.9900000000000001E-7</v>
       </c>
       <c r="C26" s="1">
         <v>4.9900000000000001E-7</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
+        <v>4.9900000000000001E-7</v>
+      </c>
+      <c r="E26" s="1">
         <v>1.64248E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
         <v>14.512583162</v>
       </c>
-      <c r="B27" s="1">
+      <c r="C27" s="1">
         <v>4.9599999999999999E-7</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D27" s="1">
         <v>4.6899999999999998E-7</v>
       </c>
-      <c r="D27">
+      <c r="E27" s="1">
         <v>1.65472E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
         <v>14.731480606</v>
       </c>
-      <c r="B28" s="1">
+      <c r="C28" s="1">
         <v>5.2699999999999999E-7</v>
       </c>
-      <c r="C28" s="1">
+      <c r="D28" s="1">
         <v>4.6600000000000002E-7</v>
       </c>
-      <c r="D28">
+      <c r="E28" s="1">
         <v>1.5517600000000001E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
         <v>14.864379523</v>
       </c>
-      <c r="B29" s="1">
+      <c r="C29" s="1">
         <v>5.44E-7</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="1">
         <v>4.8999999999999997E-7</v>
       </c>
-      <c r="D29">
+      <c r="E29" s="1">
         <v>1.53745E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
         <v>14.064636036</v>
       </c>
-      <c r="B30" s="1">
+      <c r="C30" s="1">
         <v>4.3099999999999998E-7</v>
       </c>
-      <c r="C30" s="1">
+      <c r="D30" s="1">
         <v>5.0500000000000004E-7</v>
       </c>
-      <c r="D30">
+      <c r="E30" s="1">
         <v>1.7062699999999999E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
         <v>12.718084075</v>
       </c>
-      <c r="B31" s="1">
+      <c r="C31" s="1">
         <v>4.2300000000000002E-7</v>
       </c>
-      <c r="C31" s="1">
+      <c r="D31" s="1">
         <v>5.0699999999999997E-7</v>
       </c>
-      <c r="D31">
+      <c r="E31" s="1">
         <v>1.56427E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>